--- a/test/testdata2.xlsx
+++ b/test/testdata2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">truck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2</t>
   </si>
   <si>
     <t xml:space="preserve">1 2 3 4 5</t>
@@ -439,8 +442,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -571,14 +574,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <f aca="false">IF(M3&gt;F3,F3,M3)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,14 +615,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <f aca="false">IF(M4&gt;F4,F4,M4)</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,14 +656,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="n">
-        <f aca="false">IF(M5&gt;F5,F5,M5)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,14 +697,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="n">
-        <f aca="false">IF(M6&gt;F6,F6,M6)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -770,7 +769,7 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,11 +867,11 @@
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1000</v>
@@ -1020,18 +1019,18 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/test/testdata2.xlsx
+++ b/test/testdata2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -64,24 +64,30 @@
     <t xml:space="preserve">INVL</t>
   </si>
   <si>
-    <t xml:space="preserve">pusat</t>
+    <t xml:space="preserve">Bank Indonesia Aceh</t>
   </si>
   <si>
     <t xml:space="preserve">source</t>
   </si>
   <si>
-    <t xml:space="preserve">cabang</t>
+    <t xml:space="preserve">Bank Indonesia Lhokseumawe</t>
   </si>
   <si>
     <t xml:space="preserve">point</t>
   </si>
   <si>
+    <t xml:space="preserve">Bank Indonesia Sumatera Utara (Medan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Indonesia Sibolga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Indonesia Pematang Siantar</t>
+  </si>
+  <si>
     <t xml:space="preserve">freq</t>
   </si>
   <si>
-    <t xml:space="preserve">loadp</t>
-  </si>
-  <si>
     <t xml:space="preserve">cover</t>
   </si>
   <si>
@@ -125,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">truck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 2</t>
   </si>
   <si>
     <t xml:space="preserve">1 2 3 4 5</t>
@@ -247,7 +250,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,6 +281,22 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -376,28 +395,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:S2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:S2"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:R2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:R2"/>
+  <tableColumns count="18">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="name"/>
     <tableColumn id="3" name="type"/>
     <tableColumn id="4" name="freq"/>
-    <tableColumn id="5" name="loadp"/>
-    <tableColumn id="6" name="cover"/>
-    <tableColumn id="7" name="CON"/>
-    <tableColumn id="8" name="Q (CT)"/>
-    <tableColumn id="9" name="Q"/>
-    <tableColumn id="10" name="varq Rp"/>
-    <tableColumn id="11" name="varct Rp"/>
-    <tableColumn id="12" name="fd"/>
-    <tableColumn id="13" name="vardq Rp"/>
-    <tableColumn id="14" name="vardct Rp"/>
-    <tableColumn id="15" name="vl"/>
-    <tableColumn id="16" name="vard Rp"/>
-    <tableColumn id="17" name="vx"/>
-    <tableColumn id="18" name="fix Rp"/>
-    <tableColumn id="19" name="fp"/>
+    <tableColumn id="5" name="cover"/>
+    <tableColumn id="6" name="CON"/>
+    <tableColumn id="7" name="Q (CT)"/>
+    <tableColumn id="8" name="Q"/>
+    <tableColumn id="9" name="varq Rp"/>
+    <tableColumn id="10" name="varct Rp"/>
+    <tableColumn id="11" name="fd"/>
+    <tableColumn id="12" name="vardq Rp"/>
+    <tableColumn id="13" name="vardct Rp"/>
+    <tableColumn id="14" name="vl"/>
+    <tableColumn id="15" name="vard Rp"/>
+    <tableColumn id="16" name="vx"/>
+    <tableColumn id="17" name="fix Rp"/>
+    <tableColumn id="18" name="fp"/>
   </tableColumns>
 </table>
 </file>
@@ -442,11 +460,11 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -518,7 +536,7 @@
         <v>5.5576385</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9999999</v>
+        <v>999999</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -530,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0</v>
+        <v>-999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9999999</v>
+        <v>999999</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9999999</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>16</v>
@@ -618,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0</v>
+        <v>2825</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
@@ -659,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>16</v>
@@ -700,11 +718,216 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="5"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="5"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="5"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="5"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="5"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="5"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="5"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="5"/>
+      <c r="I23" s="3"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="5"/>
+      <c r="I25" s="3"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="5"/>
+      <c r="I27" s="3"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="5"/>
+      <c r="I29" s="3"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="5"/>
+      <c r="I31" s="3"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="5"/>
+      <c r="I33" s="3"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="5"/>
+      <c r="I35" s="3"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="5"/>
+      <c r="I37" s="3"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="5"/>
+      <c r="I39" s="3"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="5"/>
+      <c r="I41" s="3"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="5"/>
+      <c r="I43" s="3"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="5"/>
+      <c r="I45" s="3"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="5"/>
+      <c r="I47" s="3"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -766,36 +989,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="0.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="0.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,198 +1028,1231 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1000</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="J2" s="6" t="n">
         <v>12000000</v>
       </c>
+      <c r="K2" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="M2" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6" t="n">
+      <c r="N2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="P2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="Q2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="S2" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="R2" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="7"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="7"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="11"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="7"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="7"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="7"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="7"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1019,18 +2274,18 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,13 +2315,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
@@ -1364,6 +2619,106 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/test/testdata2.xlsx
+++ b/test/testdata2.xlsx
@@ -461,10 +461,10 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -995,7 +995,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -2275,10 +2275,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2288,7 +2288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
@@ -2318,10 +2318,10 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>

--- a/test/testdata2.xlsx
+++ b/test/testdata2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">1 2 3 4 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another truck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 4</t>
   </si>
   <si>
     <t xml:space="preserve">T</t>
@@ -464,7 +470,7 @@
       <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -991,11 +997,11 @@
   </sheetPr>
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -1132,16 +1138,42 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3000</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="Q3" s="6"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="6"/>
@@ -2278,14 +2310,14 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,11 +2349,11 @@
   </sheetPr>
   <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>

--- a/test/testdata2.xlsx
+++ b/test/testdata2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -134,12 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 2 3 4 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another truck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 2 4</t>
   </si>
   <si>
     <t xml:space="preserve">T</t>
@@ -470,7 +464,7 @@
       <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -995,13 +989,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -1138,42 +1132,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>3000</v>
-      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="7" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="P3" s="7"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="6"/>
@@ -1896,12 +1864,19 @@
       <c r="R63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="10"/>
       <c r="O64" s="6"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="6"/>
@@ -2041,9 +2016,9 @@
       <c r="R71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="8"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2060,9 +2035,9 @@
       <c r="R72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="11"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="11"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2231,19 +2206,12 @@
       <c r="R81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="10"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="7"/>
       <c r="O82" s="6"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="6"/>
@@ -2273,18 +2241,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="7"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="7"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2310,14 +2267,14 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2310,7 @@
       <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>

--- a/test/testdata2.xlsx
+++ b/test/testdata2.xlsx
@@ -464,7 +464,7 @@
       <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -992,10 +992,10 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,7 +2267,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2310,7 +2310,7 @@
       <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
